--- a/InputFiles/CDS/CDSValidation_by_ParticipantID.xlsx
+++ b/InputFiles/CDS/CDSValidation_by_ParticipantID.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEBC477-8B8B-4A08-BB50-5669EFB5118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48659AA2-9BA7-4F8F-A0C7-96015E292804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,16 +48,13 @@
     <t>ExDataExcel</t>
   </si>
   <si>
-    <t>CDSValidation_by_ParticipantID_value _Neo4jData.xlsx</t>
-  </si>
-  <si>
     <t>MATCH (p:participant)--&gt;(s:study)
 OPTIONAL MATCH (samp:sample)--&gt;(p)
 OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
 OPTIONAL MATCH (samp)&lt;--(f:file)
 OPTIONAL MATCH (f)&lt;--(g:genomic_info)
 WITH s, p, samp, f, g, diag
-WHERE p.participant_id IN ["value"]
+WHERE p.participant_id IN ["InptVlue"]
 with p
 OPTIONAL MATCH (p)--&gt;(s:study)
 OPTIONAL MATCH (samp:sample)--&gt;(p)
@@ -71,9 +68,15 @@
 ORDER BY p.participant_id LIMIT 100</t>
   </si>
   <si>
+    <t>CDSValidation_by_ParticipantID_InptVlue_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>CDSValidation_by_ParticipantID_InptVlue_ExcelData.xlsx</t>
+  </si>
+  <si>
     <t>MATCH (s:study)&lt;--(p:participant)&lt;--(samp:sample)
 MATCH (samp)&lt;--(f:file)
-WHERE p.participant_id IN ["value"]
+WHERE p.participant_id IN ["InptVlue"]
 WITH p,s,samp,COLLECT(DISTINCT samp.sample_tumor_status) as tumor
 RETURN  
  coalesce(samp.sample_id, '') as `Sample ID`,
@@ -87,7 +90,7 @@
   <si>
     <t>MATCH (s:study)&lt;--(p:participant)&lt;--(samp:sample)
 MATCH (samp)&lt;--(f:file)
-WHERE p.participant_id IN ["value"]
+WHERE p.participant_id IN ["InptVlue"]
 WITH f,p,s,samp,COLLECT(DISTINCT samp.sample_tumor_status) as tumor
 RETURN 
     coalesce(f.file_name, '') as `File Name`,
@@ -99,10 +102,7 @@
 ORDER By f.file_name LIMIT 100</t>
   </si>
   <si>
-    <t>CDSValidation_by_ParticipantID_value_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>CDSValidation_by_ParticipantID_value_ExcelData.xlsx</t>
+    <t>CDSValidation_by_ParticipantID_InptVlue _Neo4jData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="174" x14ac:dyDescent="0.35">
@@ -470,13 +470,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="174" x14ac:dyDescent="0.35">
@@ -484,13 +484,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
